--- a/veri2ham.xlsx
+++ b/veri2ham.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB866D6-AD47-9343-856B-21A3890ECF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2840" yWindow="660" windowWidth="24020" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="t" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -84,13 +96,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,6 +129,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,17 +182,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,6 +295,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -272,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,383 +539,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:M18"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>113117.82</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>0.83540000000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>20321.3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>838</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <v>4.7160000000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="10">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <v>0.35099999999999998</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="10">
         <v>2.5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="10">
         <v>3676</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="10">
         <v>40.58</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="10">
         <v>4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="10">
         <v>0.53763399999999995</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>56702.69</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>0.2495</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>25945.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>386</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <v>0.35099999999999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>0.125</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="10">
         <v>2.5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="10">
         <v>978</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="10">
         <v>13.17</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="10">
         <v>8</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="10">
         <v>9.7200000000000006</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="10">
         <v>0.394737</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>88886.24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>0.45619999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>28486.1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="10">
         <v>750</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="10">
         <v>5316</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="10">
         <v>29.86</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="10">
         <v>14.65</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="10">
         <v>0.74074099999999998</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>29672.9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10">
         <v>7348.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>38</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="10">
         <v>1265</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="10">
         <v>26.34</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="10">
         <v>6.94</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="10">
         <v>0.30303000000000002</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>240.9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>0.2049</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>5624.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>319</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>0.40799999999999997</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>0.49399999999999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="10">
         <v>35</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <v>1755</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="10">
         <v>15.25</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="10">
         <v>8.65</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="10">
         <v>0.44741199999999998</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>11363.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>0.79369999999999996</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>1451.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>21</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="10">
         <v>18</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <v>2521</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="10">
         <v>128.54</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="10">
         <v>16</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="10">
         <v>0.155556</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>5257.63</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>0.68920000000000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>1542.2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>0.35</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="10">
         <v>5000</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <v>4097</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="10">
         <v>125.72</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="10">
         <v>11.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="10">
         <v>0.35416700000000001</v>
       </c>
       <c r="P8" s="1"/>
@@ -883,23 +976,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -940,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -987,24 +1080,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1185,7 @@
         <v>0.53763399999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1229,7 @@
         <v>0.394737</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1280,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1238,7 +1331,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1382,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1433,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1484,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P9" s="1">
         <v>4</v>
       </c>
@@ -1400,7 +1493,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f>SUM(B2:B8)</f>
         <v>305241.38000000006</v>
@@ -1461,7 +1554,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P11" s="1">
         <v>7</v>
       </c>
@@ -1470,7 +1563,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>B2/B$10</f>
         <v>0.37058481389384357</v>
@@ -1531,7 +1624,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" ref="B13:N18" si="3">B3/B$10</f>
         <v>0.18576344399963068</v>
@@ -1585,7 +1678,7 @@
         <v>0.13457201621258411</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="3"/>
         <v>0.29119983666696825</v>
@@ -1639,7 +1732,7 @@
         <v>0.25253019063661569</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="3"/>
         <v>9.7211262771777524E-2</v>
@@ -1693,7 +1786,7 @@
         <v>0.10330766579494541</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="3"/>
         <v>7.8921147584904761E-4</v>
@@ -1747,7 +1840,7 @@
         <v>0.1525297474462862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="3"/>
         <v>3.7226931682722696E-2</v>
@@ -1801,7 +1894,7 @@
         <v>5.3031472990788128E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="3"/>
         <v>1.7224499509208086E-2</v>
@@ -1855,7 +1948,7 @@
         <v>0.12074106877734359</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>B12*LN(B12)</f>
         <v>-0.36786951785811756</v>
@@ -1909,7 +2002,7 @@
         <v>-0.31098401232153866</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" ref="B22:N22" si="5">B13*LN(B13)</f>
         <v>-0.31269211686160642</v>
@@ -1963,7 +2056,7 @@
         <v>-0.26990514304606078</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" ref="B23:N23" si="6">B14*LN(B14)</f>
         <v>-0.3592664949481581</v>
@@ -2017,7 +2110,7 @@
         <v>-0.34753822790337957</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" ref="B24:N24" si="7">B15*LN(B15)</f>
         <v>-0.2265866898854581</v>
@@ -2071,7 +2164,7 @@
         <v>-0.23451291554405218</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" ref="B25:N25" si="8">B16*LN(B16)</f>
         <v>-5.6385026397527144E-3</v>
@@ -2125,7 +2218,7 @@
         <v>-0.28681627157042056</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" ref="B26:N26" si="9">B17*LN(B17)</f>
         <v>-0.12250351322263082</v>
@@ -2179,7 +2272,7 @@
         <v>-0.15574652679148923</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" ref="B27:N27" si="10">B18*LN(B18)</f>
         <v>-6.9955970177860177E-2</v>
@@ -2233,7 +2326,7 @@
         <v>-0.25525953310681793</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>1/LN((7))</f>
         <v>0.51389834236975074</v>
@@ -2291,7 +2384,7 @@
         <v>0.95624283124640108</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>1-B29</f>
         <v>0.24738929682618416</v>
@@ -2345,7 +2438,7 @@
         <v>4.3757168753598918E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B31/SUM($B$31:$N$31)</f>
         <v>7.0137469629727167E-2</v>
@@ -2399,7 +2492,7 @@
         <v>1.2405617922487098E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>20</v>
       </c>
@@ -2410,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>20</v>
       </c>
@@ -2421,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>20</v>
       </c>
@@ -2432,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>20</v>
       </c>
@@ -2443,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>20</v>
       </c>
@@ -2454,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>C37/100</f>
         <v>0.2</v>
@@ -2468,7 +2561,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44">
         <f t="shared" ref="C44:D47" si="15">C38/100</f>
         <v>0.2</v>
@@ -2482,7 +2575,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45">
         <f t="shared" si="15"/>
         <v>0.2</v>
@@ -2496,7 +2589,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46">
         <f t="shared" si="15"/>
         <v>0.2</v>
@@ -2510,7 +2603,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47">
         <f t="shared" si="15"/>
         <v>0.2</v>
@@ -2524,7 +2617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>C43*LOG(C43,2)</f>
         <v>-0.46438561897747244</v>
@@ -2538,7 +2631,7 @@
         <v>-5.6537941491425818E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51">
         <f t="shared" ref="C51:C54" si="17">C44*LOG(C44,2)</f>
         <v>-0.46438561897747244</v>
@@ -2552,7 +2645,7 @@
         <v>-6.6438561897747245E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52">
         <f t="shared" si="17"/>
         <v>-0.46438561897747244</v>
@@ -2566,7 +2659,7 @@
         <v>-6.6438561897747245E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53">
         <f t="shared" si="17"/>
         <v>-0.46438561897747244</v>
@@ -2580,7 +2673,7 @@
         <v>-6.6438561897747245E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54">
         <f t="shared" si="17"/>
         <v>-0.46438561897747244</v>
@@ -2594,7 +2687,7 @@
         <v>-6.6438561897747245E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56">
         <f>SUM(C50:C54)</f>
         <v>-2.3219280948873622</v>
@@ -2608,7 +2701,7 @@
         <v>-0.32229218908241475</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57">
         <f>-0.2*C56</f>
         <v>0.46438561897747244</v>
